--- a/PMR_with_GDP.xlsx
+++ b/PMR_with_GDP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hchanona\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hchanona\Downloads\App OCDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454302BF-404F-4BB2-A4AB-6F9B7588A2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ADEF50-B1FF-4C17-AE90-3083BDF064B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>Administrative Requirements for Limited Liability Companies and Personally-owned Enterprises</t>
   </si>
   <si>
-    <t>Communication and Simplification of  Administrative and Regulatory Burden</t>
-  </si>
-  <si>
     <t>Barriers to entry in Service Sectors</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">50414	</t>
+  </si>
+  <si>
+    <t>Communication and Simplification of Administrative and Regulatory Burden</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,30 +682,30 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2443,12 +2443,12 @@
         <v>2</v>
       </c>
       <c r="AA22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>0</v>

--- a/PMR_with_GDP.xlsx
+++ b/PMR_with_GDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hchanona\Downloads\App OCDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ADEF50-B1FF-4C17-AE90-3083BDF064B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD6400-D0B9-4EE0-92F8-3E12C88547EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Barriers to entry in Network Sectors</t>
   </si>
   <si>
-    <t>Barriers to FDI7</t>
-  </si>
-  <si>
     <t>Barriers to Trade Facilitation</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Communication and Simplification of Administrative and Regulatory Burden</t>
+  </si>
+  <si>
+    <t>Barriers to FDI</t>
   </si>
 </sst>
 </file>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
@@ -691,21 +691,21 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2443,12 +2443,12 @@
         <v>2</v>
       </c>
       <c r="AA22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>0</v>

--- a/PMR_with_GDP.xlsx
+++ b/PMR_with_GDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hchanona\Downloads\App OCDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD6400-D0B9-4EE0-92F8-3E12C88547EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DFB98D-6CD8-44B8-9C22-89CEAC80A610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -245,6 +239,12 @@
   </si>
   <si>
     <t>Barriers to FDI</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
   </si>
 </sst>
 </file>
@@ -614,11 +614,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="R11" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -682,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
@@ -691,7 +694,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>22</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2116,7 +2119,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2282,7 +2285,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2365,7 +2368,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2443,12 +2446,12 @@
         <v>2</v>
       </c>
       <c r="AA22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2531,7 +2534,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2863,7 +2866,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3195,7 +3198,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3278,7 +3281,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3444,7 +3447,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3527,7 +3530,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3610,7 +3613,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3687,10 +3690,13 @@
       <c r="Z37">
         <v>2</v>
       </c>
+      <c r="AA37">
+        <v>34282.536504254684</v>
+      </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3773,7 +3779,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3939,7 +3945,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4022,7 +4028,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4105,7 +4111,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4188,7 +4194,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4271,7 +4277,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4354,7 +4360,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4437,7 +4443,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>0</v>
